--- a/Python_Projects/output.xlsx
+++ b/Python_Projects/output.xlsx
@@ -11,6 +11,23 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Projektnummer: P18-187</t>
+  </si>
+  <si>
+    <t>Test GmbH</t>
+  </si>
+  <si>
+    <t>teststraße 5</t>
+  </si>
+  <si>
+    <t>10716 Berlin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59,13 +76,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -85,7 +102,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="95250"/>
+          <a:off x="2219325" y="95250"/>
           <a:ext cx="3200400" cy="1131570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -383,12 +400,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A4:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Python_Projects/output.xlsx
+++ b/Python_Projects/output.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Projektnummer: P18-187</t>
   </si>
   <si>
+    <t>Kunde:</t>
+  </si>
+  <si>
     <t>Test GmbH</t>
   </si>
   <si>
@@ -26,6 +29,21 @@
   </si>
   <si>
     <t>10716 Berlin</t>
+  </si>
+  <si>
+    <t>Saatwinkler Damm 66, 13627 Berlin</t>
+  </si>
+  <si>
+    <t>Baustelle:</t>
+  </si>
+  <si>
+    <t>321 - Physik Neubau 1.Ba</t>
+  </si>
+  <si>
+    <t>Zülpicher Str.77</t>
+  </si>
+  <si>
+    <t>50937 Köln</t>
   </si>
 </sst>
 </file>
@@ -76,16 +94,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -102,8 +120,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2219325" y="95250"/>
-          <a:ext cx="3200400" cy="1131570"/>
+          <a:off x="3295650" y="47625"/>
+          <a:ext cx="1600200" cy="565785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,33 +418,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:A10"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="4" spans="1:5">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Python_Projects/output.xlsx
+++ b/Python_Projects/output.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>Prüfauftrag</t>
+  </si>
   <si>
     <t>Projektnummer: P18-187</t>
   </si>
@@ -44,6 +47,60 @@
   </si>
   <si>
     <t>50937 Köln</t>
+  </si>
+  <si>
+    <t>Feuchtemessung</t>
+  </si>
+  <si>
+    <t>Sensor: S220</t>
+  </si>
+  <si>
+    <t>Gasart: O2</t>
+  </si>
+  <si>
+    <t>Messgrößen</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>MP2</t>
+  </si>
+  <si>
+    <t>Absolute Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>Relative Luftfeuchtigkeit</t>
+  </si>
+  <si>
+    <t>%rH</t>
+  </si>
+  <si>
+    <t>Drucktaupunkt</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP1: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP2: </t>
+  </si>
+  <si>
+    <t>Prüfausdruck Nr.: 1</t>
   </si>
 </sst>
 </file>
@@ -131,6 +188,19 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B15:F19" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,50 +497,156 @@
     <col min="1" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>